--- a/src/backend/template/excel_template.xlsx
+++ b/src/backend/template/excel_template.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>contentcode</t>
   </si>
@@ -564,6 +564,12 @@
     <t>&lt;%=_data_.imgHost+bundle.posterLarge%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=bundle.tags.length!=0?bundle.tags.join(","):""%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=bundle.score%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%="CG030000"%&gt;</t>
   </si>
   <si>
@@ -608,10 +614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -663,8 +669,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -678,36 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -717,89 +806,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -841,13 +847,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,25 +997,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,139 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,41 +1185,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1235,17 +1206,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,8 +1230,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,16 +1250,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1309,133 +1315,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1874,10 +1880,10 @@
   <sheetPr/>
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2067,61 +2073,65 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="N4" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="23"/>
       <c r="N5" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5" s="19"/>
       <c r="R5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:11">
@@ -2133,7 +2143,7 @@
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>

--- a/src/backend/template/excel_template.xlsx
+++ b/src/backend/template/excel_template.xlsx
@@ -564,7 +564,7 @@
     <t>&lt;%=_data_.imgHost+bundle.posterLarge%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=bundle.tags.length!=0?bundle.tags.join(","):""%&gt;</t>
+    <t>&lt;%=bundle.tags.length!=0?bundle.tags.slice(0,4).join(" "):""%&gt;</t>
   </si>
   <si>
     <t>&lt;%=bundle.score%&gt;</t>
@@ -614,9 +614,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -669,6 +669,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -677,6 +728,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -686,104 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -847,187 +847,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,6 +1185,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1212,45 +1236,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1267,6 +1252,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,148 +1300,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,10 +1880,10 @@
   <sheetPr/>
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/backend/template/excel_template.xlsx
+++ b/src/backend/template/excel_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="演示" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
     <t>&lt;%="CT"+bundle.id%&gt;</t>
   </si>
   <si>
-    <t>&lt;%="666666"%&gt;</t>
+    <t>&lt;%=video.videoUrl%&gt;</t>
   </si>
   <si>
     <t>&lt;%=_data_.imgHost+video.poster%&gt;</t>
@@ -670,10 +670,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -684,15 +758,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -707,14 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -728,75 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -847,6 +847,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -859,25 +865,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,25 +985,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,115 +1021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,17 +1197,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,9 +1223,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,17 +1237,6 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,6 +1279,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1303,7 +1303,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1318,130 +1318,130 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,10 +1880,10 @@
   <sheetPr/>
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/backend/template/excel_template.xlsx
+++ b/src/backend/template/excel_template.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>contentcode</t>
   </si>
@@ -600,6 +600,9 @@
     <t>&lt;%=_data_.imgHost+video.poster%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=_data_.isFree%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%=video.duration%&gt;</t>
   </si>
   <si>
@@ -614,10 +617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -676,27 +679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -706,7 +688,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -720,91 +808,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -847,187 +850,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,89 +1188,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1294,16 +1214,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,124 +1327,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,10 +1883,10 @@
   <sheetPr/>
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2127,11 +2130,14 @@
         <v>49</v>
       </c>
       <c r="O5" s="19"/>
+      <c r="P5" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="R5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:11">
@@ -2143,7 +2149,7 @@
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
